--- a/try merge.xlsx
+++ b/try merge.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\membrane_detection\Membrane_detection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DannyM19\Desktop\Membrane detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85485FBA-AF13-42B2-92A1-B789FE1855AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +57,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -209,23 +208,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -261,23 +243,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -453,16 +418,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
@@ -491,7 +456,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -523,7 +488,7 @@
         <v>12181.378634547011</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -555,7 +520,7 @@
         <v>4575.4023295339484</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -587,7 +552,7 @@
         <v>6271.5358446723449</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0</v>
       </c>
